--- a/test_flex_sensor/datatest.xlsx
+++ b/test_flex_sensor/datatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTN\BTL\BTL-Lap-Trinh-Nhung\test_flex_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E49CF5-8C89-4966-BE46-E5C4332E58B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BCCC8-C2CC-4E1C-80A0-5F35DE5F8522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{53DBE636-E368-4B53-8D88-02B7D046EC7B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{53DBE636-E368-4B53-8D88-02B7D046EC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>Ký tự</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -429,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C93F079-D216-4EE8-B854-42FA2311BCF3}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,23 +482,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4095</v>
       </c>
       <c r="C2">
-        <v>1831</v>
+        <v>4095</v>
       </c>
       <c r="D2">
-        <v>2743</v>
+        <v>3198</v>
       </c>
       <c r="E2">
-        <v>2160</v>
+        <v>2352</v>
       </c>
       <c r="F2">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -482,16 +506,16 @@
         <v>4095</v>
       </c>
       <c r="C3">
-        <v>2343</v>
+        <v>4095</v>
       </c>
       <c r="D3">
-        <v>2762</v>
+        <v>3199</v>
       </c>
       <c r="E3">
-        <v>2255</v>
+        <v>2346</v>
       </c>
       <c r="F3">
-        <v>2428</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,16 +523,16 @@
         <v>4095</v>
       </c>
       <c r="C4">
-        <v>2325</v>
+        <v>4095</v>
       </c>
       <c r="D4">
-        <v>2735</v>
+        <v>3195</v>
       </c>
       <c r="E4">
-        <v>2288</v>
+        <v>2352</v>
       </c>
       <c r="F4">
-        <v>2370</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,16 +540,16 @@
         <v>4095</v>
       </c>
       <c r="C5">
-        <v>2479</v>
+        <v>4095</v>
       </c>
       <c r="D5">
-        <v>2514</v>
+        <v>3123</v>
       </c>
       <c r="E5">
-        <v>2225</v>
+        <v>2346</v>
       </c>
       <c r="F5">
-        <v>2112</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -533,16 +557,16 @@
         <v>4095</v>
       </c>
       <c r="C6">
-        <v>2448</v>
+        <v>4095</v>
       </c>
       <c r="D6">
-        <v>2490</v>
+        <v>3127</v>
       </c>
       <c r="E6">
-        <v>2208</v>
+        <v>2345</v>
       </c>
       <c r="F6">
-        <v>2121</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,22 +574,39 @@
         <v>4095</v>
       </c>
       <c r="C7">
-        <v>2416</v>
+        <v>4095</v>
       </c>
       <c r="D7">
-        <v>2810</v>
+        <v>3071</v>
       </c>
       <c r="E7">
-        <v>2297</v>
+        <v>2349</v>
       </c>
       <c r="F7">
-        <v>2352</v>
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4095</v>
+      </c>
+      <c r="C9">
+        <v>4095</v>
+      </c>
+      <c r="D9">
+        <v>4095</v>
+      </c>
+      <c r="E9">
+        <v>3435</v>
+      </c>
+      <c r="F9">
+        <v>3427</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
       <c r="B10">
         <v>4095</v>
       </c>
@@ -573,13 +614,13 @@
         <v>4095</v>
       </c>
       <c r="D10">
-        <v>3198</v>
+        <v>4095</v>
       </c>
       <c r="E10">
-        <v>2352</v>
+        <v>3536</v>
       </c>
       <c r="F10">
-        <v>2386</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,13 +631,13 @@
         <v>4095</v>
       </c>
       <c r="D11">
-        <v>3199</v>
+        <v>4095</v>
       </c>
       <c r="E11">
-        <v>2346</v>
+        <v>3418</v>
       </c>
       <c r="F11">
-        <v>2373</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,13 +648,13 @@
         <v>4095</v>
       </c>
       <c r="D12">
-        <v>3195</v>
+        <v>4095</v>
       </c>
       <c r="E12">
-        <v>2352</v>
+        <v>3021</v>
       </c>
       <c r="F12">
-        <v>2388</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,13 +665,13 @@
         <v>4095</v>
       </c>
       <c r="D13">
-        <v>3123</v>
+        <v>4095</v>
       </c>
       <c r="E13">
-        <v>2346</v>
+        <v>2910</v>
       </c>
       <c r="F13">
-        <v>2353</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,36 +682,36 @@
         <v>4095</v>
       </c>
       <c r="D14">
-        <v>3127</v>
+        <v>4095</v>
       </c>
       <c r="E14">
-        <v>2345</v>
+        <v>2864</v>
       </c>
       <c r="F14">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>4095</v>
-      </c>
-      <c r="C15">
-        <v>4095</v>
-      </c>
-      <c r="D15">
-        <v>3071</v>
-      </c>
-      <c r="E15">
-        <v>2349</v>
-      </c>
-      <c r="F15">
-        <v>2307</v>
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4095</v>
+      </c>
+      <c r="C16">
+        <v>4095</v>
+      </c>
+      <c r="D16">
+        <v>4095</v>
+      </c>
+      <c r="E16">
+        <v>2813</v>
+      </c>
+      <c r="F16">
+        <v>2448</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
       <c r="B17">
         <v>4095</v>
       </c>
@@ -681,10 +722,10 @@
         <v>4095</v>
       </c>
       <c r="E17">
-        <v>3435</v>
+        <v>2770</v>
       </c>
       <c r="F17">
-        <v>3427</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,10 +739,10 @@
         <v>4095</v>
       </c>
       <c r="E18">
-        <v>3536</v>
+        <v>2954</v>
       </c>
       <c r="F18">
-        <v>3884</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,10 +756,10 @@
         <v>4095</v>
       </c>
       <c r="E19">
-        <v>3418</v>
+        <v>2899</v>
       </c>
       <c r="F19">
-        <v>3870</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,10 +773,10 @@
         <v>4095</v>
       </c>
       <c r="E20">
-        <v>3021</v>
+        <v>2896</v>
       </c>
       <c r="F20">
-        <v>2711</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,33 +790,33 @@
         <v>4095</v>
       </c>
       <c r="E21">
-        <v>2910</v>
+        <v>2921</v>
       </c>
       <c r="F21">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4095</v>
-      </c>
-      <c r="C22">
-        <v>4095</v>
-      </c>
-      <c r="D22">
-        <v>4095</v>
-      </c>
-      <c r="E22">
-        <v>2864</v>
-      </c>
-      <c r="F22">
-        <v>2739</v>
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4095</v>
+      </c>
+      <c r="C23">
+        <v>4095</v>
+      </c>
+      <c r="D23">
+        <v>4095</v>
+      </c>
+      <c r="E23">
+        <v>4095</v>
+      </c>
+      <c r="F23">
+        <v>2548</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
       <c r="B24">
         <v>4095</v>
       </c>
@@ -786,10 +827,10 @@
         <v>4095</v>
       </c>
       <c r="E24">
-        <v>2813</v>
+        <v>4095</v>
       </c>
       <c r="F24">
-        <v>2448</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,10 +844,10 @@
         <v>4095</v>
       </c>
       <c r="E25">
-        <v>2770</v>
+        <v>4095</v>
       </c>
       <c r="F25">
-        <v>2432</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,10 +861,10 @@
         <v>4095</v>
       </c>
       <c r="E26">
-        <v>2954</v>
+        <v>4095</v>
       </c>
       <c r="F26">
-        <v>2246</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,10 +878,10 @@
         <v>4095</v>
       </c>
       <c r="E27">
-        <v>2899</v>
+        <v>4095</v>
       </c>
       <c r="F27">
-        <v>2295</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,33 +895,33 @@
         <v>4095</v>
       </c>
       <c r="E28">
-        <v>2896</v>
+        <v>4095</v>
       </c>
       <c r="F28">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>4095</v>
-      </c>
-      <c r="C29">
-        <v>4095</v>
-      </c>
-      <c r="D29">
-        <v>4095</v>
-      </c>
-      <c r="E29">
-        <v>2921</v>
-      </c>
-      <c r="F29">
-        <v>2321</v>
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4095</v>
+      </c>
+      <c r="C30">
+        <v>4095</v>
+      </c>
+      <c r="D30">
+        <v>4095</v>
+      </c>
+      <c r="E30">
+        <v>4095</v>
+      </c>
+      <c r="F30">
+        <v>4095</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
       <c r="B31">
         <v>4095</v>
       </c>
@@ -894,7 +935,7 @@
         <v>4095</v>
       </c>
       <c r="F31">
-        <v>2548</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +952,7 @@
         <v>4095</v>
       </c>
       <c r="F32">
-        <v>2365</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,7 +969,7 @@
         <v>4095</v>
       </c>
       <c r="F33">
-        <v>2558</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,7 +986,7 @@
         <v>4095</v>
       </c>
       <c r="F34">
-        <v>2512</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,30 +1003,30 @@
         <v>4095</v>
       </c>
       <c r="F35">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>4095</v>
-      </c>
-      <c r="C36">
-        <v>4095</v>
-      </c>
-      <c r="D36">
-        <v>4095</v>
-      </c>
-      <c r="E36">
-        <v>4095</v>
-      </c>
-      <c r="F36">
-        <v>2503</v>
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4095</v>
+      </c>
+      <c r="C37">
+        <v>4095</v>
+      </c>
+      <c r="D37">
+        <v>4095</v>
+      </c>
+      <c r="E37">
+        <v>4095</v>
+      </c>
+      <c r="F37">
+        <v>1077</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>5</v>
-      </c>
       <c r="B38">
         <v>4095</v>
       </c>
@@ -999,7 +1040,7 @@
         <v>4095</v>
       </c>
       <c r="F38">
-        <v>4095</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,7 +1057,7 @@
         <v>4095</v>
       </c>
       <c r="F39">
-        <v>4095</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1074,7 @@
         <v>4095</v>
       </c>
       <c r="F40">
-        <v>4095</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,7 +1091,7 @@
         <v>4095</v>
       </c>
       <c r="F41">
-        <v>4095</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,30 +1108,30 @@
         <v>4095</v>
       </c>
       <c r="F42">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4095</v>
-      </c>
-      <c r="C43">
-        <v>4095</v>
-      </c>
-      <c r="D43">
-        <v>4095</v>
-      </c>
-      <c r="E43">
-        <v>4095</v>
-      </c>
-      <c r="F43">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>4095</v>
+      </c>
+      <c r="C44">
+        <v>4095</v>
+      </c>
+      <c r="D44">
+        <v>4095</v>
+      </c>
+      <c r="E44">
+        <v>1808</v>
+      </c>
+      <c r="F44">
         <v>4095</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>6</v>
-      </c>
       <c r="B45">
         <v>4095</v>
       </c>
@@ -1101,10 +1142,10 @@
         <v>4095</v>
       </c>
       <c r="E45">
-        <v>4095</v>
+        <v>1761</v>
       </c>
       <c r="F45">
-        <v>1077</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,10 +1159,10 @@
         <v>4095</v>
       </c>
       <c r="E46">
-        <v>4095</v>
+        <v>1819</v>
       </c>
       <c r="F46">
-        <v>1565</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,10 +1176,10 @@
         <v>4095</v>
       </c>
       <c r="E47">
-        <v>4095</v>
+        <v>1936</v>
       </c>
       <c r="F47">
-        <v>1195</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,10 +1193,10 @@
         <v>4095</v>
       </c>
       <c r="E48">
-        <v>4095</v>
+        <v>1931</v>
       </c>
       <c r="F48">
-        <v>1137</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,33 +1210,33 @@
         <v>4095</v>
       </c>
       <c r="E49">
-        <v>4095</v>
+        <v>1884</v>
       </c>
       <c r="F49">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>4095</v>
-      </c>
-      <c r="C50">
-        <v>4095</v>
-      </c>
-      <c r="D50">
-        <v>4095</v>
-      </c>
-      <c r="E50">
-        <v>4095</v>
-      </c>
-      <c r="F50">
-        <v>1090</v>
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>4095</v>
+      </c>
+      <c r="C51">
+        <v>4095</v>
+      </c>
+      <c r="D51">
+        <v>2096</v>
+      </c>
+      <c r="E51">
+        <v>4095</v>
+      </c>
+      <c r="F51">
+        <v>4095</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7</v>
-      </c>
       <c r="B52">
         <v>4095</v>
       </c>
@@ -1203,10 +1244,10 @@
         <v>4095</v>
       </c>
       <c r="D52">
-        <v>4095</v>
+        <v>2155</v>
       </c>
       <c r="E52">
-        <v>1808</v>
+        <v>4095</v>
       </c>
       <c r="F52">
         <v>4095</v>
@@ -1220,10 +1261,10 @@
         <v>4095</v>
       </c>
       <c r="D53">
-        <v>4095</v>
+        <v>2210</v>
       </c>
       <c r="E53">
-        <v>1761</v>
+        <v>4095</v>
       </c>
       <c r="F53">
         <v>4095</v>
@@ -1237,10 +1278,10 @@
         <v>4095</v>
       </c>
       <c r="D54">
-        <v>4095</v>
+        <v>2209</v>
       </c>
       <c r="E54">
-        <v>1819</v>
+        <v>4095</v>
       </c>
       <c r="F54">
         <v>4095</v>
@@ -1254,10 +1295,10 @@
         <v>4095</v>
       </c>
       <c r="D55">
-        <v>4095</v>
+        <v>2222</v>
       </c>
       <c r="E55">
-        <v>1936</v>
+        <v>4095</v>
       </c>
       <c r="F55">
         <v>4095</v>
@@ -1271,44 +1312,44 @@
         <v>4095</v>
       </c>
       <c r="D56">
-        <v>4095</v>
+        <v>2207</v>
       </c>
       <c r="E56">
-        <v>1931</v>
+        <v>4095</v>
       </c>
       <c r="F56">
         <v>4095</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>4095</v>
-      </c>
-      <c r="C57">
-        <v>4095</v>
-      </c>
-      <c r="D57">
-        <v>4095</v>
-      </c>
-      <c r="E57">
-        <v>1884</v>
-      </c>
-      <c r="F57">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>4095</v>
+      </c>
+      <c r="C58">
+        <v>2423</v>
+      </c>
+      <c r="D58">
+        <v>4095</v>
+      </c>
+      <c r="E58">
+        <v>4095</v>
+      </c>
+      <c r="F58">
         <v>4095</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8</v>
-      </c>
       <c r="B59">
         <v>4095</v>
       </c>
       <c r="C59">
-        <v>4095</v>
+        <v>2344</v>
       </c>
       <c r="D59">
-        <v>2096</v>
+        <v>4095</v>
       </c>
       <c r="E59">
         <v>4095</v>
@@ -1322,10 +1363,10 @@
         <v>4095</v>
       </c>
       <c r="C60">
-        <v>4095</v>
+        <v>2207</v>
       </c>
       <c r="D60">
-        <v>2155</v>
+        <v>4095</v>
       </c>
       <c r="E60">
         <v>4095</v>
@@ -1339,10 +1380,10 @@
         <v>4095</v>
       </c>
       <c r="C61">
-        <v>4095</v>
+        <v>2294</v>
       </c>
       <c r="D61">
-        <v>2210</v>
+        <v>4095</v>
       </c>
       <c r="E61">
         <v>4095</v>
@@ -1356,10 +1397,10 @@
         <v>4095</v>
       </c>
       <c r="C62">
-        <v>4095</v>
+        <v>2370</v>
       </c>
       <c r="D62">
-        <v>2209</v>
+        <v>4095</v>
       </c>
       <c r="E62">
         <v>4095</v>
@@ -1373,10 +1414,10 @@
         <v>4095</v>
       </c>
       <c r="C63">
-        <v>4095</v>
+        <v>2335</v>
       </c>
       <c r="D63">
-        <v>2222</v>
+        <v>4095</v>
       </c>
       <c r="E63">
         <v>4095</v>
@@ -1385,41 +1426,41 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>4095</v>
-      </c>
-      <c r="C64">
-        <v>4095</v>
-      </c>
-      <c r="D64">
-        <v>2207</v>
-      </c>
-      <c r="E64">
-        <v>4095</v>
-      </c>
-      <c r="F64">
-        <v>4095</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>4095</v>
+      </c>
+      <c r="C65">
+        <v>1831</v>
+      </c>
+      <c r="D65">
+        <v>2743</v>
+      </c>
+      <c r="E65">
+        <v>2160</v>
+      </c>
+      <c r="F65">
+        <v>2384</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>9</v>
-      </c>
       <c r="B66">
         <v>4095</v>
       </c>
       <c r="C66">
-        <v>2423</v>
+        <v>2343</v>
       </c>
       <c r="D66">
-        <v>4095</v>
+        <v>2762</v>
       </c>
       <c r="E66">
-        <v>4095</v>
+        <v>2255</v>
       </c>
       <c r="F66">
-        <v>4095</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,16 +1468,16 @@
         <v>4095</v>
       </c>
       <c r="C67">
-        <v>2344</v>
+        <v>2325</v>
       </c>
       <c r="D67">
-        <v>4095</v>
+        <v>2735</v>
       </c>
       <c r="E67">
-        <v>4095</v>
+        <v>2288</v>
       </c>
       <c r="F67">
-        <v>4095</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,16 +1485,16 @@
         <v>4095</v>
       </c>
       <c r="C68">
-        <v>2207</v>
+        <v>2479</v>
       </c>
       <c r="D68">
-        <v>4095</v>
+        <v>2514</v>
       </c>
       <c r="E68">
-        <v>4095</v>
+        <v>2225</v>
       </c>
       <c r="F68">
-        <v>4095</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,16 +1502,16 @@
         <v>4095</v>
       </c>
       <c r="C69">
-        <v>2294</v>
+        <v>2448</v>
       </c>
       <c r="D69">
-        <v>4095</v>
+        <v>2490</v>
       </c>
       <c r="E69">
-        <v>4095</v>
+        <v>2208</v>
       </c>
       <c r="F69">
-        <v>4095</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,32 +1519,855 @@
         <v>4095</v>
       </c>
       <c r="C70">
-        <v>2370</v>
+        <v>2416</v>
       </c>
       <c r="D70">
-        <v>4095</v>
+        <v>2810</v>
       </c>
       <c r="E70">
-        <v>4095</v>
+        <v>2297</v>
       </c>
       <c r="F70">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>4095</v>
-      </c>
-      <c r="C71">
-        <v>2335</v>
-      </c>
-      <c r="D71">
-        <v>4095</v>
-      </c>
-      <c r="E71">
-        <v>4095</v>
-      </c>
-      <c r="F71">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>3009</v>
+      </c>
+      <c r="C72">
+        <v>4095</v>
+      </c>
+      <c r="D72">
+        <v>4095</v>
+      </c>
+      <c r="E72">
+        <v>4095</v>
+      </c>
+      <c r="F72">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>3109</v>
+      </c>
+      <c r="C73">
+        <v>4095</v>
+      </c>
+      <c r="D73">
+        <v>4095</v>
+      </c>
+      <c r="E73">
+        <v>4095</v>
+      </c>
+      <c r="F73">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>3315</v>
+      </c>
+      <c r="C74">
+        <v>4095</v>
+      </c>
+      <c r="D74">
+        <v>4095</v>
+      </c>
+      <c r="E74">
+        <v>4095</v>
+      </c>
+      <c r="F74">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>3734</v>
+      </c>
+      <c r="C75">
+        <v>4095</v>
+      </c>
+      <c r="D75">
+        <v>4095</v>
+      </c>
+      <c r="E75">
+        <v>4095</v>
+      </c>
+      <c r="F75">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>3632</v>
+      </c>
+      <c r="C76">
+        <v>4095</v>
+      </c>
+      <c r="D76">
+        <v>4095</v>
+      </c>
+      <c r="E76">
+        <v>4095</v>
+      </c>
+      <c r="F76">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>3574</v>
+      </c>
+      <c r="C77">
+        <v>4095</v>
+      </c>
+      <c r="D77">
+        <v>4095</v>
+      </c>
+      <c r="E77">
+        <v>4095</v>
+      </c>
+      <c r="F77">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>4095</v>
+      </c>
+      <c r="C79">
+        <v>4095</v>
+      </c>
+      <c r="D79">
+        <v>3328</v>
+      </c>
+      <c r="E79">
+        <v>4095</v>
+      </c>
+      <c r="F79">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4095</v>
+      </c>
+      <c r="C80">
+        <v>4095</v>
+      </c>
+      <c r="D80">
+        <v>3373</v>
+      </c>
+      <c r="E80">
+        <v>4095</v>
+      </c>
+      <c r="F80">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4095</v>
+      </c>
+      <c r="C81">
+        <v>4095</v>
+      </c>
+      <c r="D81">
+        <v>3530</v>
+      </c>
+      <c r="E81">
+        <v>4095</v>
+      </c>
+      <c r="F81">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>4095</v>
+      </c>
+      <c r="C82">
+        <v>4095</v>
+      </c>
+      <c r="D82">
+        <v>3553</v>
+      </c>
+      <c r="E82">
+        <v>4095</v>
+      </c>
+      <c r="F82">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>4095</v>
+      </c>
+      <c r="C83">
+        <v>4095</v>
+      </c>
+      <c r="D83">
+        <v>3600</v>
+      </c>
+      <c r="E83">
+        <v>4095</v>
+      </c>
+      <c r="F83">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>4095</v>
+      </c>
+      <c r="C84">
+        <v>4095</v>
+      </c>
+      <c r="D84">
+        <v>3558</v>
+      </c>
+      <c r="E84">
+        <v>4095</v>
+      </c>
+      <c r="F84">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>4095</v>
+      </c>
+      <c r="C86">
+        <v>4095</v>
+      </c>
+      <c r="D86">
+        <v>4095</v>
+      </c>
+      <c r="E86">
+        <v>3679</v>
+      </c>
+      <c r="F86">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4095</v>
+      </c>
+      <c r="C87">
+        <v>4095</v>
+      </c>
+      <c r="D87">
+        <v>4095</v>
+      </c>
+      <c r="E87">
+        <v>3718</v>
+      </c>
+      <c r="F87">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>4095</v>
+      </c>
+      <c r="C88">
+        <v>4095</v>
+      </c>
+      <c r="D88">
+        <v>4095</v>
+      </c>
+      <c r="E88">
+        <v>3543</v>
+      </c>
+      <c r="F88">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>4095</v>
+      </c>
+      <c r="C89">
+        <v>4095</v>
+      </c>
+      <c r="D89">
+        <v>4095</v>
+      </c>
+      <c r="E89">
+        <v>3681</v>
+      </c>
+      <c r="F89">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>4095</v>
+      </c>
+      <c r="C90">
+        <v>4095</v>
+      </c>
+      <c r="D90">
+        <v>4095</v>
+      </c>
+      <c r="E90">
+        <v>3667</v>
+      </c>
+      <c r="F90">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>4095</v>
+      </c>
+      <c r="C91">
+        <v>4095</v>
+      </c>
+      <c r="D91">
+        <v>4095</v>
+      </c>
+      <c r="E91">
+        <v>3635</v>
+      </c>
+      <c r="F91">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>1358</v>
+      </c>
+      <c r="C93">
+        <v>3633</v>
+      </c>
+      <c r="D93">
+        <v>4095</v>
+      </c>
+      <c r="E93">
+        <v>2464</v>
+      </c>
+      <c r="F93">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1387</v>
+      </c>
+      <c r="C94">
+        <v>3617</v>
+      </c>
+      <c r="D94">
+        <v>4095</v>
+      </c>
+      <c r="E94">
+        <v>2479</v>
+      </c>
+      <c r="F94">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1333</v>
+      </c>
+      <c r="C95">
+        <v>3734</v>
+      </c>
+      <c r="D95">
+        <v>4095</v>
+      </c>
+      <c r="E95">
+        <v>2489</v>
+      </c>
+      <c r="F95">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1328</v>
+      </c>
+      <c r="C96">
+        <v>3664</v>
+      </c>
+      <c r="D96">
+        <v>4095</v>
+      </c>
+      <c r="E96">
+        <v>2489</v>
+      </c>
+      <c r="F96">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1322</v>
+      </c>
+      <c r="C97">
+        <v>3678</v>
+      </c>
+      <c r="D97">
+        <v>4095</v>
+      </c>
+      <c r="E97">
+        <v>2480</v>
+      </c>
+      <c r="F97">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1287</v>
+      </c>
+      <c r="C98">
+        <v>3691</v>
+      </c>
+      <c r="D98">
+        <v>4095</v>
+      </c>
+      <c r="E98">
+        <v>2471</v>
+      </c>
+      <c r="F98">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>4095</v>
+      </c>
+      <c r="C100">
+        <v>3190</v>
+      </c>
+      <c r="D100">
+        <v>4095</v>
+      </c>
+      <c r="E100">
+        <v>4095</v>
+      </c>
+      <c r="F100">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3706</v>
+      </c>
+      <c r="C101">
+        <v>3023</v>
+      </c>
+      <c r="D101">
+        <v>4095</v>
+      </c>
+      <c r="E101">
+        <v>4095</v>
+      </c>
+      <c r="F101">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>3570</v>
+      </c>
+      <c r="C102">
+        <v>3066</v>
+      </c>
+      <c r="D102">
+        <v>4095</v>
+      </c>
+      <c r="E102">
+        <v>4095</v>
+      </c>
+      <c r="F102">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>3722</v>
+      </c>
+      <c r="C103">
+        <v>3293</v>
+      </c>
+      <c r="D103">
+        <v>4095</v>
+      </c>
+      <c r="E103">
+        <v>4095</v>
+      </c>
+      <c r="F103">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3530</v>
+      </c>
+      <c r="C104">
+        <v>2944</v>
+      </c>
+      <c r="D104">
+        <v>4095</v>
+      </c>
+      <c r="E104">
+        <v>4095</v>
+      </c>
+      <c r="F104">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>4095</v>
+      </c>
+      <c r="C105">
+        <v>3379</v>
+      </c>
+      <c r="D105">
+        <v>4095</v>
+      </c>
+      <c r="E105">
+        <v>4095</v>
+      </c>
+      <c r="F105">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>4095</v>
+      </c>
+      <c r="C107">
+        <v>4095</v>
+      </c>
+      <c r="D107">
+        <v>1789</v>
+      </c>
+      <c r="E107">
+        <v>2442</v>
+      </c>
+      <c r="F107">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>4095</v>
+      </c>
+      <c r="C108">
+        <v>4095</v>
+      </c>
+      <c r="D108">
+        <v>1730</v>
+      </c>
+      <c r="E108">
+        <v>2558</v>
+      </c>
+      <c r="F108">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>4095</v>
+      </c>
+      <c r="C109">
+        <v>4095</v>
+      </c>
+      <c r="D109">
+        <v>1879</v>
+      </c>
+      <c r="E109">
+        <v>2494</v>
+      </c>
+      <c r="F109">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>4095</v>
+      </c>
+      <c r="C110">
+        <v>4095</v>
+      </c>
+      <c r="D110">
+        <v>1867</v>
+      </c>
+      <c r="E110">
+        <v>2554</v>
+      </c>
+      <c r="F110">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>4095</v>
+      </c>
+      <c r="C111">
+        <v>4095</v>
+      </c>
+      <c r="D111">
+        <v>1878</v>
+      </c>
+      <c r="E111">
+        <v>2594</v>
+      </c>
+      <c r="F111">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>4095</v>
+      </c>
+      <c r="C112">
+        <v>4095</v>
+      </c>
+      <c r="D112">
+        <v>1850</v>
+      </c>
+      <c r="E112">
+        <v>2559</v>
+      </c>
+      <c r="F112">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>4095</v>
+      </c>
+      <c r="C114">
+        <v>4095</v>
+      </c>
+      <c r="D114">
+        <v>4095</v>
+      </c>
+      <c r="E114">
+        <v>2593</v>
+      </c>
+      <c r="F114">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>4095</v>
+      </c>
+      <c r="C115">
+        <v>4095</v>
+      </c>
+      <c r="D115">
+        <v>4095</v>
+      </c>
+      <c r="E115">
+        <v>2613</v>
+      </c>
+      <c r="F115">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>4095</v>
+      </c>
+      <c r="C116">
+        <v>4095</v>
+      </c>
+      <c r="D116">
+        <v>4095</v>
+      </c>
+      <c r="E116">
+        <v>2715</v>
+      </c>
+      <c r="F116">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>4095</v>
+      </c>
+      <c r="C117">
+        <v>4095</v>
+      </c>
+      <c r="D117">
+        <v>4095</v>
+      </c>
+      <c r="E117">
+        <v>2710</v>
+      </c>
+      <c r="F117">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>4095</v>
+      </c>
+      <c r="C118">
+        <v>4095</v>
+      </c>
+      <c r="D118">
+        <v>4095</v>
+      </c>
+      <c r="E118">
+        <v>2817</v>
+      </c>
+      <c r="F118">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>4095</v>
+      </c>
+      <c r="C119">
+        <v>4095</v>
+      </c>
+      <c r="D119">
+        <v>4095</v>
+      </c>
+      <c r="E119">
+        <v>3035</v>
+      </c>
+      <c r="F119">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>4095</v>
+      </c>
+      <c r="C121">
+        <v>1424</v>
+      </c>
+      <c r="D121">
+        <v>3430</v>
+      </c>
+      <c r="E121">
+        <v>3062</v>
+      </c>
+      <c r="F121">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>4095</v>
+      </c>
+      <c r="C122">
+        <v>1535</v>
+      </c>
+      <c r="D122">
+        <v>3311</v>
+      </c>
+      <c r="E122">
+        <v>3152</v>
+      </c>
+      <c r="F122">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>4095</v>
+      </c>
+      <c r="C123">
+        <v>1607</v>
+      </c>
+      <c r="D123">
+        <v>3569</v>
+      </c>
+      <c r="E123">
+        <v>3024</v>
+      </c>
+      <c r="F123">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>4095</v>
+      </c>
+      <c r="C124">
+        <v>1627</v>
+      </c>
+      <c r="D124">
+        <v>3478</v>
+      </c>
+      <c r="E124">
+        <v>2944</v>
+      </c>
+      <c r="F124">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>4095</v>
+      </c>
+      <c r="C125">
+        <v>1456</v>
+      </c>
+      <c r="D125">
+        <v>3426</v>
+      </c>
+      <c r="E125">
+        <v>2973</v>
+      </c>
+      <c r="F125">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>4095</v>
+      </c>
+      <c r="C126">
+        <v>1469</v>
+      </c>
+      <c r="D126">
+        <v>3271</v>
+      </c>
+      <c r="E126">
+        <v>3088</v>
+      </c>
+      <c r="F126">
         <v>4095</v>
       </c>
     </row>

--- a/test_flex_sensor/datatest.xlsx
+++ b/test_flex_sensor/datatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTN\BTL\BTL-Lap-Trinh-Nhung\test_flex_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BCCC8-C2CC-4E1C-80A0-5F35DE5F8522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4649E843-CF61-46A0-AF33-7EFCE1478C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{53DBE636-E368-4B53-8D88-02B7D046EC7B}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{53DBE636-E368-4B53-8D88-02B7D046EC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -453,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C93F079-D216-4EE8-B854-42FA2311BCF3}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,6 +2404,1260 @@
         <v>4095</v>
       </c>
     </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>4095</v>
+      </c>
+      <c r="C128">
+        <v>4095</v>
+      </c>
+      <c r="D128">
+        <v>3019</v>
+      </c>
+      <c r="E128">
+        <v>2913</v>
+      </c>
+      <c r="F128">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>4095</v>
+      </c>
+      <c r="C129">
+        <v>4095</v>
+      </c>
+      <c r="D129">
+        <v>3013</v>
+      </c>
+      <c r="E129">
+        <v>2877</v>
+      </c>
+      <c r="F129">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>4095</v>
+      </c>
+      <c r="C130">
+        <v>4095</v>
+      </c>
+      <c r="D130">
+        <v>3134</v>
+      </c>
+      <c r="E130">
+        <v>3107</v>
+      </c>
+      <c r="F130">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>4095</v>
+      </c>
+      <c r="C131">
+        <v>4095</v>
+      </c>
+      <c r="D131">
+        <v>3122</v>
+      </c>
+      <c r="E131">
+        <v>3063</v>
+      </c>
+      <c r="F131">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>4095</v>
+      </c>
+      <c r="C132">
+        <v>4095</v>
+      </c>
+      <c r="D132">
+        <v>3207</v>
+      </c>
+      <c r="E132">
+        <v>3059</v>
+      </c>
+      <c r="F132">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>4095</v>
+      </c>
+      <c r="C133">
+        <v>4095</v>
+      </c>
+      <c r="D133">
+        <v>3277</v>
+      </c>
+      <c r="E133">
+        <v>3125</v>
+      </c>
+      <c r="F133">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>2912</v>
+      </c>
+      <c r="C135">
+        <v>4095</v>
+      </c>
+      <c r="D135">
+        <v>4095</v>
+      </c>
+      <c r="E135">
+        <v>2864</v>
+      </c>
+      <c r="F135">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>2873</v>
+      </c>
+      <c r="C136">
+        <v>4095</v>
+      </c>
+      <c r="D136">
+        <v>4095</v>
+      </c>
+      <c r="E136">
+        <v>2903</v>
+      </c>
+      <c r="F136">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2672</v>
+      </c>
+      <c r="C137">
+        <v>4095</v>
+      </c>
+      <c r="D137">
+        <v>4095</v>
+      </c>
+      <c r="E137">
+        <v>2800</v>
+      </c>
+      <c r="F137">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2551</v>
+      </c>
+      <c r="C138">
+        <v>4095</v>
+      </c>
+      <c r="D138">
+        <v>4095</v>
+      </c>
+      <c r="E138">
+        <v>2867</v>
+      </c>
+      <c r="F138">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>2827</v>
+      </c>
+      <c r="C139">
+        <v>4095</v>
+      </c>
+      <c r="D139">
+        <v>4095</v>
+      </c>
+      <c r="E139">
+        <v>2916</v>
+      </c>
+      <c r="F139">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>2982</v>
+      </c>
+      <c r="C140">
+        <v>4095</v>
+      </c>
+      <c r="D140">
+        <v>4095</v>
+      </c>
+      <c r="E140">
+        <v>2890</v>
+      </c>
+      <c r="F140">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>4095</v>
+      </c>
+      <c r="C142">
+        <v>4095</v>
+      </c>
+      <c r="D142">
+        <v>3059</v>
+      </c>
+      <c r="E142">
+        <v>3109</v>
+      </c>
+      <c r="F142">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>4095</v>
+      </c>
+      <c r="C143">
+        <v>4095</v>
+      </c>
+      <c r="D143">
+        <v>3184</v>
+      </c>
+      <c r="E143">
+        <v>3056</v>
+      </c>
+      <c r="F143">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>4095</v>
+      </c>
+      <c r="C144">
+        <v>4095</v>
+      </c>
+      <c r="D144">
+        <v>3476</v>
+      </c>
+      <c r="E144">
+        <v>3408</v>
+      </c>
+      <c r="F144">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>4095</v>
+      </c>
+      <c r="C145">
+        <v>4095</v>
+      </c>
+      <c r="D145">
+        <v>3574</v>
+      </c>
+      <c r="E145">
+        <v>3119</v>
+      </c>
+      <c r="F145">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>4095</v>
+      </c>
+      <c r="C146">
+        <v>4095</v>
+      </c>
+      <c r="D146">
+        <v>3415</v>
+      </c>
+      <c r="E146">
+        <v>3054</v>
+      </c>
+      <c r="F146">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>4095</v>
+      </c>
+      <c r="C147">
+        <v>4095</v>
+      </c>
+      <c r="D147">
+        <v>3501</v>
+      </c>
+      <c r="E147">
+        <v>2992</v>
+      </c>
+      <c r="F147">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>3811</v>
+      </c>
+      <c r="C149">
+        <v>4091</v>
+      </c>
+      <c r="D149">
+        <v>4095</v>
+      </c>
+      <c r="E149">
+        <v>4095</v>
+      </c>
+      <c r="F149">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>4067</v>
+      </c>
+      <c r="C150">
+        <v>4095</v>
+      </c>
+      <c r="D150">
+        <v>4095</v>
+      </c>
+      <c r="E150">
+        <v>4095</v>
+      </c>
+      <c r="F150">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>4083</v>
+      </c>
+      <c r="C151">
+        <v>4095</v>
+      </c>
+      <c r="D151">
+        <v>4095</v>
+      </c>
+      <c r="E151">
+        <v>4095</v>
+      </c>
+      <c r="F151">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>3911</v>
+      </c>
+      <c r="C152">
+        <v>4074</v>
+      </c>
+      <c r="D152">
+        <v>4095</v>
+      </c>
+      <c r="E152">
+        <v>4095</v>
+      </c>
+      <c r="F152">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>3903</v>
+      </c>
+      <c r="C153">
+        <v>4066</v>
+      </c>
+      <c r="D153">
+        <v>4095</v>
+      </c>
+      <c r="E153">
+        <v>4095</v>
+      </c>
+      <c r="F153">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>3910</v>
+      </c>
+      <c r="C154">
+        <v>4050</v>
+      </c>
+      <c r="D154">
+        <v>4095</v>
+      </c>
+      <c r="E154">
+        <v>4095</v>
+      </c>
+      <c r="F154">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>4095</v>
+      </c>
+      <c r="C156">
+        <v>3984</v>
+      </c>
+      <c r="D156">
+        <v>3571</v>
+      </c>
+      <c r="E156">
+        <v>1613</v>
+      </c>
+      <c r="F156">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>4095</v>
+      </c>
+      <c r="C157">
+        <v>4095</v>
+      </c>
+      <c r="D157">
+        <v>4095</v>
+      </c>
+      <c r="E157">
+        <v>1507</v>
+      </c>
+      <c r="F157">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>4095</v>
+      </c>
+      <c r="C158">
+        <v>4095</v>
+      </c>
+      <c r="D158">
+        <v>4095</v>
+      </c>
+      <c r="E158">
+        <v>1396</v>
+      </c>
+      <c r="F158">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>4095</v>
+      </c>
+      <c r="C159">
+        <v>4095</v>
+      </c>
+      <c r="D159">
+        <v>4095</v>
+      </c>
+      <c r="E159">
+        <v>1730</v>
+      </c>
+      <c r="F159">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>4095</v>
+      </c>
+      <c r="C160">
+        <v>4095</v>
+      </c>
+      <c r="D160">
+        <v>4095</v>
+      </c>
+      <c r="E160">
+        <v>1570</v>
+      </c>
+      <c r="F160">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>4095</v>
+      </c>
+      <c r="C161">
+        <v>4095</v>
+      </c>
+      <c r="D161">
+        <v>4095</v>
+      </c>
+      <c r="E161">
+        <v>1445</v>
+      </c>
+      <c r="F161">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>4095</v>
+      </c>
+      <c r="C162">
+        <v>4095</v>
+      </c>
+      <c r="D162">
+        <v>4095</v>
+      </c>
+      <c r="E162">
+        <v>1462</v>
+      </c>
+      <c r="F162">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>4095</v>
+      </c>
+      <c r="C163">
+        <v>4095</v>
+      </c>
+      <c r="D163">
+        <v>4095</v>
+      </c>
+      <c r="E163">
+        <v>1532</v>
+      </c>
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165">
+        <v>4095</v>
+      </c>
+      <c r="C165">
+        <v>4095</v>
+      </c>
+      <c r="D165">
+        <v>4095</v>
+      </c>
+      <c r="E165">
+        <v>3501</v>
+      </c>
+      <c r="F165">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>4095</v>
+      </c>
+      <c r="C166">
+        <v>4095</v>
+      </c>
+      <c r="D166">
+        <v>4095</v>
+      </c>
+      <c r="E166">
+        <v>3472</v>
+      </c>
+      <c r="F166">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>4095</v>
+      </c>
+      <c r="C167">
+        <v>4095</v>
+      </c>
+      <c r="D167">
+        <v>4095</v>
+      </c>
+      <c r="E167">
+        <v>3472</v>
+      </c>
+      <c r="F167">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>4095</v>
+      </c>
+      <c r="C168">
+        <v>4095</v>
+      </c>
+      <c r="D168">
+        <v>4095</v>
+      </c>
+      <c r="E168">
+        <v>3583</v>
+      </c>
+      <c r="F168">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>4095</v>
+      </c>
+      <c r="C169">
+        <v>4095</v>
+      </c>
+      <c r="D169">
+        <v>4095</v>
+      </c>
+      <c r="E169">
+        <v>3670</v>
+      </c>
+      <c r="F169">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>4095</v>
+      </c>
+      <c r="C170">
+        <v>4095</v>
+      </c>
+      <c r="D170">
+        <v>4095</v>
+      </c>
+      <c r="E170">
+        <v>3728</v>
+      </c>
+      <c r="F170">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>4095</v>
+      </c>
+      <c r="C171">
+        <v>4095</v>
+      </c>
+      <c r="D171">
+        <v>4095</v>
+      </c>
+      <c r="E171">
+        <v>3737</v>
+      </c>
+      <c r="F171">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>4095</v>
+      </c>
+      <c r="C172">
+        <v>4095</v>
+      </c>
+      <c r="D172">
+        <v>4095</v>
+      </c>
+      <c r="E172">
+        <v>3683</v>
+      </c>
+      <c r="F172">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174">
+        <v>1717</v>
+      </c>
+      <c r="C174">
+        <v>4095</v>
+      </c>
+      <c r="D174">
+        <v>4095</v>
+      </c>
+      <c r="E174">
+        <v>4095</v>
+      </c>
+      <c r="F174">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1664</v>
+      </c>
+      <c r="C175">
+        <v>4095</v>
+      </c>
+      <c r="D175">
+        <v>4095</v>
+      </c>
+      <c r="E175">
+        <v>4095</v>
+      </c>
+      <c r="F175">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1626</v>
+      </c>
+      <c r="C176">
+        <v>4095</v>
+      </c>
+      <c r="D176">
+        <v>4095</v>
+      </c>
+      <c r="E176">
+        <v>4095</v>
+      </c>
+      <c r="F176">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1731</v>
+      </c>
+      <c r="C177">
+        <v>4095</v>
+      </c>
+      <c r="D177">
+        <v>4095</v>
+      </c>
+      <c r="E177">
+        <v>4095</v>
+      </c>
+      <c r="F177">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1999</v>
+      </c>
+      <c r="C178">
+        <v>4095</v>
+      </c>
+      <c r="D178">
+        <v>4095</v>
+      </c>
+      <c r="E178">
+        <v>4095</v>
+      </c>
+      <c r="F178">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1529</v>
+      </c>
+      <c r="C179">
+        <v>4095</v>
+      </c>
+      <c r="D179">
+        <v>4095</v>
+      </c>
+      <c r="E179">
+        <v>4095</v>
+      </c>
+      <c r="F179">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1645</v>
+      </c>
+      <c r="C180">
+        <v>4095</v>
+      </c>
+      <c r="D180">
+        <v>4095</v>
+      </c>
+      <c r="E180">
+        <v>4095</v>
+      </c>
+      <c r="F180">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>1666</v>
+      </c>
+      <c r="C181">
+        <v>4095</v>
+      </c>
+      <c r="D181">
+        <v>4095</v>
+      </c>
+      <c r="E181">
+        <v>4095</v>
+      </c>
+      <c r="F181">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183">
+        <v>4095</v>
+      </c>
+      <c r="C183">
+        <v>4095</v>
+      </c>
+      <c r="D183">
+        <v>3504</v>
+      </c>
+      <c r="E183">
+        <v>2719</v>
+      </c>
+      <c r="F183">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>4095</v>
+      </c>
+      <c r="C184">
+        <v>4095</v>
+      </c>
+      <c r="D184">
+        <v>3611</v>
+      </c>
+      <c r="E184">
+        <v>2966</v>
+      </c>
+      <c r="F184">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>4095</v>
+      </c>
+      <c r="C185">
+        <v>4095</v>
+      </c>
+      <c r="D185">
+        <v>3710</v>
+      </c>
+      <c r="E185">
+        <v>2992</v>
+      </c>
+      <c r="F185">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>4095</v>
+      </c>
+      <c r="C186">
+        <v>4095</v>
+      </c>
+      <c r="D186">
+        <v>3745</v>
+      </c>
+      <c r="E186">
+        <v>2957</v>
+      </c>
+      <c r="F186">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>4095</v>
+      </c>
+      <c r="C187">
+        <v>4095</v>
+      </c>
+      <c r="D187">
+        <v>3634</v>
+      </c>
+      <c r="E187">
+        <v>2866</v>
+      </c>
+      <c r="F187">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>4095</v>
+      </c>
+      <c r="C188">
+        <v>4095</v>
+      </c>
+      <c r="D188">
+        <v>3611</v>
+      </c>
+      <c r="E188">
+        <v>2815</v>
+      </c>
+      <c r="F188">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>4095</v>
+      </c>
+      <c r="C189">
+        <v>4095</v>
+      </c>
+      <c r="D189">
+        <v>3735</v>
+      </c>
+      <c r="E189">
+        <v>2992</v>
+      </c>
+      <c r="F189">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>4095</v>
+      </c>
+      <c r="C190">
+        <v>4095</v>
+      </c>
+      <c r="D190">
+        <v>3694</v>
+      </c>
+      <c r="E190">
+        <v>2947</v>
+      </c>
+      <c r="F190">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192">
+        <v>4095</v>
+      </c>
+      <c r="C192">
+        <v>4095</v>
+      </c>
+      <c r="D192">
+        <v>4095</v>
+      </c>
+      <c r="E192">
+        <v>2839</v>
+      </c>
+      <c r="F192">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>4095</v>
+      </c>
+      <c r="C193">
+        <v>4095</v>
+      </c>
+      <c r="D193">
+        <v>4095</v>
+      </c>
+      <c r="E193">
+        <v>2810</v>
+      </c>
+      <c r="F193">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>4095</v>
+      </c>
+      <c r="C194">
+        <v>4095</v>
+      </c>
+      <c r="D194">
+        <v>4095</v>
+      </c>
+      <c r="E194">
+        <v>3026</v>
+      </c>
+      <c r="F194">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>4095</v>
+      </c>
+      <c r="C195">
+        <v>4095</v>
+      </c>
+      <c r="D195">
+        <v>4095</v>
+      </c>
+      <c r="E195">
+        <v>2946</v>
+      </c>
+      <c r="F195">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>4095</v>
+      </c>
+      <c r="C196">
+        <v>4095</v>
+      </c>
+      <c r="D196">
+        <v>4095</v>
+      </c>
+      <c r="E196">
+        <v>3105</v>
+      </c>
+      <c r="F196">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>4095</v>
+      </c>
+      <c r="C197">
+        <v>4095</v>
+      </c>
+      <c r="D197">
+        <v>4095</v>
+      </c>
+      <c r="E197">
+        <v>3184</v>
+      </c>
+      <c r="F197">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>4095</v>
+      </c>
+      <c r="C198">
+        <v>4095</v>
+      </c>
+      <c r="D198">
+        <v>4095</v>
+      </c>
+      <c r="E198">
+        <v>3031</v>
+      </c>
+      <c r="F198">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>4095</v>
+      </c>
+      <c r="C199">
+        <v>4095</v>
+      </c>
+      <c r="D199">
+        <v>4095</v>
+      </c>
+      <c r="E199">
+        <v>3087</v>
+      </c>
+      <c r="F199">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>25</v>
+      </c>
+      <c r="B201">
+        <v>4095</v>
+      </c>
+      <c r="C201">
+        <v>4095</v>
+      </c>
+      <c r="D201">
+        <v>1906</v>
+      </c>
+      <c r="E201">
+        <v>2586</v>
+      </c>
+      <c r="F201">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>4095</v>
+      </c>
+      <c r="C202">
+        <v>4095</v>
+      </c>
+      <c r="D202">
+        <v>1763</v>
+      </c>
+      <c r="E202">
+        <v>2626</v>
+      </c>
+      <c r="F202">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>4095</v>
+      </c>
+      <c r="C203">
+        <v>4095</v>
+      </c>
+      <c r="D203">
+        <v>2185</v>
+      </c>
+      <c r="E203">
+        <v>2559</v>
+      </c>
+      <c r="F203">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>4095</v>
+      </c>
+      <c r="C204">
+        <v>4095</v>
+      </c>
+      <c r="D204">
+        <v>2213</v>
+      </c>
+      <c r="E204">
+        <v>2559</v>
+      </c>
+      <c r="F204">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>4095</v>
+      </c>
+      <c r="C205">
+        <v>4095</v>
+      </c>
+      <c r="D205">
+        <v>1955</v>
+      </c>
+      <c r="E205">
+        <v>2608</v>
+      </c>
+      <c r="F205">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>4095</v>
+      </c>
+      <c r="C206">
+        <v>4095</v>
+      </c>
+      <c r="D206">
+        <v>2097</v>
+      </c>
+      <c r="E206">
+        <v>2714</v>
+      </c>
+      <c r="F206">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>4095</v>
+      </c>
+      <c r="C207">
+        <v>4095</v>
+      </c>
+      <c r="D207">
+        <v>2336</v>
+      </c>
+      <c r="E207">
+        <v>2779</v>
+      </c>
+      <c r="F207">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>4095</v>
+      </c>
+      <c r="C208">
+        <v>4095</v>
+      </c>
+      <c r="D208">
+        <v>2326</v>
+      </c>
+      <c r="E208">
+        <v>2751</v>
+      </c>
+      <c r="F208">
+        <v>2785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_flex_sensor/datatest.xlsx
+++ b/test_flex_sensor/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTN\BTL\BTL-Lap-Trinh-Nhung\test_flex_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4649E843-CF61-46A0-AF33-7EFCE1478C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A66D71-4C43-48D5-B9C2-812A62E838CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{53DBE636-E368-4B53-8D88-02B7D046EC7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Dot</t>
   </si>
 </sst>
 </file>
@@ -486,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C93F079-D216-4EE8-B854-42FA2311BCF3}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,6 +3682,1118 @@
         <v>2785</v>
       </c>
     </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210">
+        <v>1855</v>
+      </c>
+      <c r="C210">
+        <v>4095</v>
+      </c>
+      <c r="D210">
+        <v>4095</v>
+      </c>
+      <c r="E210">
+        <v>2313</v>
+      </c>
+      <c r="F210">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>1903</v>
+      </c>
+      <c r="C211">
+        <v>4095</v>
+      </c>
+      <c r="D211">
+        <v>4095</v>
+      </c>
+      <c r="E211">
+        <v>2450</v>
+      </c>
+      <c r="F211">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1899</v>
+      </c>
+      <c r="C212">
+        <v>4095</v>
+      </c>
+      <c r="D212">
+        <v>4095</v>
+      </c>
+      <c r="E212">
+        <v>2307</v>
+      </c>
+      <c r="F212">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1818</v>
+      </c>
+      <c r="C213">
+        <v>4095</v>
+      </c>
+      <c r="D213">
+        <v>4095</v>
+      </c>
+      <c r="E213">
+        <v>2254</v>
+      </c>
+      <c r="F213">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>1909</v>
+      </c>
+      <c r="C214">
+        <v>4095</v>
+      </c>
+      <c r="D214">
+        <v>4095</v>
+      </c>
+      <c r="E214">
+        <v>2354</v>
+      </c>
+      <c r="F214">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>2080</v>
+      </c>
+      <c r="C215">
+        <v>4095</v>
+      </c>
+      <c r="D215">
+        <v>4095</v>
+      </c>
+      <c r="E215">
+        <v>2397</v>
+      </c>
+      <c r="F215">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2055</v>
+      </c>
+      <c r="C216">
+        <v>4095</v>
+      </c>
+      <c r="D216">
+        <v>4095</v>
+      </c>
+      <c r="E216">
+        <v>2337</v>
+      </c>
+      <c r="F216">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>2043</v>
+      </c>
+      <c r="C217">
+        <v>4095</v>
+      </c>
+      <c r="D217">
+        <v>4095</v>
+      </c>
+      <c r="E217">
+        <v>2333</v>
+      </c>
+      <c r="F217">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219">
+        <v>4095</v>
+      </c>
+      <c r="C219">
+        <v>4095</v>
+      </c>
+      <c r="D219">
+        <v>4095</v>
+      </c>
+      <c r="E219">
+        <v>2768</v>
+      </c>
+      <c r="F219">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>4095</v>
+      </c>
+      <c r="C220">
+        <v>4095</v>
+      </c>
+      <c r="D220">
+        <v>4095</v>
+      </c>
+      <c r="E220">
+        <v>2882</v>
+      </c>
+      <c r="F220">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>4095</v>
+      </c>
+      <c r="C221">
+        <v>4095</v>
+      </c>
+      <c r="D221">
+        <v>4095</v>
+      </c>
+      <c r="E221">
+        <v>2768</v>
+      </c>
+      <c r="F221">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>4095</v>
+      </c>
+      <c r="C222">
+        <v>4095</v>
+      </c>
+      <c r="D222">
+        <v>4095</v>
+      </c>
+      <c r="E222">
+        <v>2736</v>
+      </c>
+      <c r="F222">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>4095</v>
+      </c>
+      <c r="C223">
+        <v>4095</v>
+      </c>
+      <c r="D223">
+        <v>4095</v>
+      </c>
+      <c r="E223">
+        <v>2669</v>
+      </c>
+      <c r="F223">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>4095</v>
+      </c>
+      <c r="C224">
+        <v>4095</v>
+      </c>
+      <c r="D224">
+        <v>4095</v>
+      </c>
+      <c r="E224">
+        <v>2624</v>
+      </c>
+      <c r="F224">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>4095</v>
+      </c>
+      <c r="C225">
+        <v>4095</v>
+      </c>
+      <c r="D225">
+        <v>4095</v>
+      </c>
+      <c r="E225">
+        <v>2797</v>
+      </c>
+      <c r="F225">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>4095</v>
+      </c>
+      <c r="C226">
+        <v>4095</v>
+      </c>
+      <c r="D226">
+        <v>4095</v>
+      </c>
+      <c r="E226">
+        <v>2787</v>
+      </c>
+      <c r="F226">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228">
+        <v>4095</v>
+      </c>
+      <c r="C228">
+        <v>4095</v>
+      </c>
+      <c r="D228">
+        <v>4095</v>
+      </c>
+      <c r="E228">
+        <v>1899</v>
+      </c>
+      <c r="F228">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>4095</v>
+      </c>
+      <c r="C229">
+        <v>4095</v>
+      </c>
+      <c r="D229">
+        <v>4095</v>
+      </c>
+      <c r="E229">
+        <v>2019</v>
+      </c>
+      <c r="F229">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>4095</v>
+      </c>
+      <c r="C230">
+        <v>4095</v>
+      </c>
+      <c r="D230">
+        <v>4095</v>
+      </c>
+      <c r="E230">
+        <v>1875</v>
+      </c>
+      <c r="F230">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>4095</v>
+      </c>
+      <c r="C231">
+        <v>4095</v>
+      </c>
+      <c r="D231">
+        <v>4095</v>
+      </c>
+      <c r="E231">
+        <v>1837</v>
+      </c>
+      <c r="F231">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>4095</v>
+      </c>
+      <c r="C232">
+        <v>4095</v>
+      </c>
+      <c r="D232">
+        <v>4095</v>
+      </c>
+      <c r="E232">
+        <v>1840</v>
+      </c>
+      <c r="F232">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>4095</v>
+      </c>
+      <c r="C233">
+        <v>4095</v>
+      </c>
+      <c r="D233">
+        <v>4095</v>
+      </c>
+      <c r="E233">
+        <v>2128</v>
+      </c>
+      <c r="F233">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>4095</v>
+      </c>
+      <c r="C234">
+        <v>4095</v>
+      </c>
+      <c r="D234">
+        <v>4095</v>
+      </c>
+      <c r="E234">
+        <v>1918</v>
+      </c>
+      <c r="F234">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>4095</v>
+      </c>
+      <c r="C235">
+        <v>4095</v>
+      </c>
+      <c r="D235">
+        <v>4095</v>
+      </c>
+      <c r="E235">
+        <v>1971</v>
+      </c>
+      <c r="F235">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>29</v>
+      </c>
+      <c r="B237">
+        <v>2186</v>
+      </c>
+      <c r="C237">
+        <v>4095</v>
+      </c>
+      <c r="D237">
+        <v>4095</v>
+      </c>
+      <c r="E237">
+        <v>3055</v>
+      </c>
+      <c r="F237">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>2183</v>
+      </c>
+      <c r="C238">
+        <v>4095</v>
+      </c>
+      <c r="D238">
+        <v>4095</v>
+      </c>
+      <c r="E238">
+        <v>3136</v>
+      </c>
+      <c r="F238">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>2251</v>
+      </c>
+      <c r="C239">
+        <v>4095</v>
+      </c>
+      <c r="D239">
+        <v>4095</v>
+      </c>
+      <c r="E239">
+        <v>3085</v>
+      </c>
+      <c r="F239">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2277</v>
+      </c>
+      <c r="C240">
+        <v>4095</v>
+      </c>
+      <c r="D240">
+        <v>4095</v>
+      </c>
+      <c r="E240">
+        <v>3152</v>
+      </c>
+      <c r="F240">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>2288</v>
+      </c>
+      <c r="C241">
+        <v>4095</v>
+      </c>
+      <c r="D241">
+        <v>4095</v>
+      </c>
+      <c r="E241">
+        <v>3071</v>
+      </c>
+      <c r="F241">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>2317</v>
+      </c>
+      <c r="C242">
+        <v>4095</v>
+      </c>
+      <c r="D242">
+        <v>4095</v>
+      </c>
+      <c r="E242">
+        <v>3070</v>
+      </c>
+      <c r="F242">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2313</v>
+      </c>
+      <c r="C243">
+        <v>4095</v>
+      </c>
+      <c r="D243">
+        <v>4095</v>
+      </c>
+      <c r="E243">
+        <v>3037</v>
+      </c>
+      <c r="F243">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>2278</v>
+      </c>
+      <c r="C244">
+        <v>4095</v>
+      </c>
+      <c r="D244">
+        <v>4095</v>
+      </c>
+      <c r="E244">
+        <v>3066</v>
+      </c>
+      <c r="F244">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246">
+        <v>4095</v>
+      </c>
+      <c r="C246">
+        <v>2623</v>
+      </c>
+      <c r="D246">
+        <v>2695</v>
+      </c>
+      <c r="E246">
+        <v>2801</v>
+      </c>
+      <c r="F246">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>4095</v>
+      </c>
+      <c r="C247">
+        <v>2751</v>
+      </c>
+      <c r="D247">
+        <v>2754</v>
+      </c>
+      <c r="E247">
+        <v>2785</v>
+      </c>
+      <c r="F247">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>4095</v>
+      </c>
+      <c r="C248">
+        <v>2917</v>
+      </c>
+      <c r="D248">
+        <v>3153</v>
+      </c>
+      <c r="E248">
+        <v>3061</v>
+      </c>
+      <c r="F248">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>4095</v>
+      </c>
+      <c r="C249">
+        <v>2608</v>
+      </c>
+      <c r="D249">
+        <v>2643</v>
+      </c>
+      <c r="E249">
+        <v>2802</v>
+      </c>
+      <c r="F249">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>4095</v>
+      </c>
+      <c r="C250">
+        <v>2605</v>
+      </c>
+      <c r="D250">
+        <v>3038</v>
+      </c>
+      <c r="E250">
+        <v>2608</v>
+      </c>
+      <c r="F250">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>4095</v>
+      </c>
+      <c r="C251">
+        <v>2784</v>
+      </c>
+      <c r="D251">
+        <v>3130</v>
+      </c>
+      <c r="E251">
+        <v>3216</v>
+      </c>
+      <c r="F251">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>4095</v>
+      </c>
+      <c r="C252">
+        <v>2983</v>
+      </c>
+      <c r="D252">
+        <v>3253</v>
+      </c>
+      <c r="E252">
+        <v>3419</v>
+      </c>
+      <c r="F252">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>4095</v>
+      </c>
+      <c r="C253">
+        <v>3102</v>
+      </c>
+      <c r="D253">
+        <v>3230</v>
+      </c>
+      <c r="E253">
+        <v>3278</v>
+      </c>
+      <c r="F253">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>31</v>
+      </c>
+      <c r="B255">
+        <v>4095</v>
+      </c>
+      <c r="C255">
+        <v>4095</v>
+      </c>
+      <c r="D255">
+        <v>2202</v>
+      </c>
+      <c r="E255">
+        <v>1653</v>
+      </c>
+      <c r="F255">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>4095</v>
+      </c>
+      <c r="C256">
+        <v>4095</v>
+      </c>
+      <c r="D256">
+        <v>2098</v>
+      </c>
+      <c r="E256">
+        <v>1482</v>
+      </c>
+      <c r="F256">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>4095</v>
+      </c>
+      <c r="C257">
+        <v>4095</v>
+      </c>
+      <c r="D257">
+        <v>2086</v>
+      </c>
+      <c r="E257">
+        <v>1808</v>
+      </c>
+      <c r="F257">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>4095</v>
+      </c>
+      <c r="C258">
+        <v>4095</v>
+      </c>
+      <c r="D258">
+        <v>2174</v>
+      </c>
+      <c r="E258">
+        <v>1982</v>
+      </c>
+      <c r="F258">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>4095</v>
+      </c>
+      <c r="C259">
+        <v>4095</v>
+      </c>
+      <c r="D259">
+        <v>2110</v>
+      </c>
+      <c r="E259">
+        <v>2000</v>
+      </c>
+      <c r="F259">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>4095</v>
+      </c>
+      <c r="C260">
+        <v>4095</v>
+      </c>
+      <c r="D260">
+        <v>2167</v>
+      </c>
+      <c r="E260">
+        <v>1968</v>
+      </c>
+      <c r="F260">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>4095</v>
+      </c>
+      <c r="C261">
+        <v>4095</v>
+      </c>
+      <c r="D261">
+        <v>2443</v>
+      </c>
+      <c r="E261">
+        <v>1445</v>
+      </c>
+      <c r="F261">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>4095</v>
+      </c>
+      <c r="C262">
+        <v>4095</v>
+      </c>
+      <c r="D262">
+        <v>2640</v>
+      </c>
+      <c r="E262">
+        <v>1620</v>
+      </c>
+      <c r="F262">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264">
+        <v>4095</v>
+      </c>
+      <c r="C264">
+        <v>2773</v>
+      </c>
+      <c r="D264">
+        <v>4095</v>
+      </c>
+      <c r="E264">
+        <v>2766</v>
+      </c>
+      <c r="F264">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>4095</v>
+      </c>
+      <c r="C265">
+        <v>2791</v>
+      </c>
+      <c r="D265">
+        <v>4095</v>
+      </c>
+      <c r="E265">
+        <v>2881</v>
+      </c>
+      <c r="F265">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>4095</v>
+      </c>
+      <c r="C266">
+        <v>2706</v>
+      </c>
+      <c r="D266">
+        <v>4095</v>
+      </c>
+      <c r="E266">
+        <v>2864</v>
+      </c>
+      <c r="F266">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>4095</v>
+      </c>
+      <c r="C267">
+        <v>2965</v>
+      </c>
+      <c r="D267">
+        <v>4095</v>
+      </c>
+      <c r="E267">
+        <v>2870</v>
+      </c>
+      <c r="F267">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>4095</v>
+      </c>
+      <c r="C268">
+        <v>3123</v>
+      </c>
+      <c r="D268">
+        <v>4095</v>
+      </c>
+      <c r="E268">
+        <v>2961</v>
+      </c>
+      <c r="F268">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>4095</v>
+      </c>
+      <c r="C269">
+        <v>3167</v>
+      </c>
+      <c r="D269">
+        <v>4095</v>
+      </c>
+      <c r="E269">
+        <v>3041</v>
+      </c>
+      <c r="F269">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>4095</v>
+      </c>
+      <c r="C270">
+        <v>3152</v>
+      </c>
+      <c r="D270">
+        <v>4095</v>
+      </c>
+      <c r="E270">
+        <v>3294</v>
+      </c>
+      <c r="F270">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>4095</v>
+      </c>
+      <c r="C271">
+        <v>3186</v>
+      </c>
+      <c r="D271">
+        <v>4095</v>
+      </c>
+      <c r="E271">
+        <v>3331</v>
+      </c>
+      <c r="F271">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>33</v>
+      </c>
+      <c r="B273">
+        <v>4095</v>
+      </c>
+      <c r="C273">
+        <v>4095</v>
+      </c>
+      <c r="D273">
+        <v>1858</v>
+      </c>
+      <c r="E273">
+        <v>4095</v>
+      </c>
+      <c r="F273">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>4095</v>
+      </c>
+      <c r="C274">
+        <v>4095</v>
+      </c>
+      <c r="D274">
+        <v>1991</v>
+      </c>
+      <c r="E274">
+        <v>4095</v>
+      </c>
+      <c r="F274">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>4095</v>
+      </c>
+      <c r="C275">
+        <v>4095</v>
+      </c>
+      <c r="D275">
+        <v>1235</v>
+      </c>
+      <c r="E275">
+        <v>4095</v>
+      </c>
+      <c r="F275">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>4095</v>
+      </c>
+      <c r="C276">
+        <v>4095</v>
+      </c>
+      <c r="D276">
+        <v>1386</v>
+      </c>
+      <c r="E276">
+        <v>4095</v>
+      </c>
+      <c r="F276">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>4095</v>
+      </c>
+      <c r="C277">
+        <v>4095</v>
+      </c>
+      <c r="D277">
+        <v>1459</v>
+      </c>
+      <c r="E277">
+        <v>4095</v>
+      </c>
+      <c r="F277">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>4095</v>
+      </c>
+      <c r="C278">
+        <v>4095</v>
+      </c>
+      <c r="D278">
+        <v>1687</v>
+      </c>
+      <c r="E278">
+        <v>4095</v>
+      </c>
+      <c r="F278">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>4095</v>
+      </c>
+      <c r="C279">
+        <v>4095</v>
+      </c>
+      <c r="D279">
+        <v>1710</v>
+      </c>
+      <c r="E279">
+        <v>4095</v>
+      </c>
+      <c r="F279">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>4095</v>
+      </c>
+      <c r="C280">
+        <v>4095</v>
+      </c>
+      <c r="D280">
+        <v>1706</v>
+      </c>
+      <c r="E280">
+        <v>4095</v>
+      </c>
+      <c r="F280">
+        <v>4095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
